--- a/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,11</t>
+          <t>3,42; 19,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,2</t>
+          <t>1,8; 10,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,38</t>
+          <t>0,76; 5,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,18</t>
+          <t>1,29; 5,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,63</t>
+          <t>1,47; 4,43</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,76</t>
+          <t>1,5; 4,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,0</t>
+          <t>2,29; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,5</t>
+          <t>2,24; 4,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,3</t>
+          <t>2,58; 6,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,35</t>
+          <t>5,0; 13,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,3</t>
+          <t>4,12; 7,93</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,49</t>
+          <t>5,94; 12,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 14,17</t>
+          <t>7,64; 13,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,78</t>
+          <t>7,38; 12,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 27,99</t>
+          <t>3,44; 30,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 29,32</t>
+          <t>5,83; 28,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 23,31</t>
+          <t>5,89; 24,38</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,25</t>
+          <t>3,19; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,06</t>
+          <t>5,04; 8,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,1</t>
+          <t>4,35; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 19,87</t>
+          <t>3,29; 20,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,75</t>
+          <t>1,52; 10,2</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,51</t>
+          <t>0,86; 5,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,8</t>
+          <t>1,59; 6,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,43</t>
+          <t>1,53; 4,63</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,94</t>
+          <t>1,54; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,83</t>
+          <t>2,39; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,64</t>
+          <t>2,24; 4,5</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,58</t>
+          <t>2,69; 6,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,11</t>
+          <t>4,96; 13,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,93</t>
+          <t>4,16; 8,3</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 12,75</t>
+          <t>6,1; 12,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 13,88</t>
+          <t>7,79; 14,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,01</t>
+          <t>7,36; 11,78</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 30,23</t>
+          <t>3,42; 27,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 28,53</t>
+          <t>5,77; 29,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 24,38</t>
+          <t>6,05; 23,31</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,15</t>
+          <t>3,23; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,26</t>
+          <t>5,03; 8,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,06</t>
+          <t>4,31; 6,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,11</t>
+          <t>3,35; 20,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,2</t>
+          <t>1,36; 9,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,38</t>
+          <t>0,86; 5,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,18</t>
+          <t>1,2; 5,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,63</t>
+          <t>1,29; 4,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,76</t>
+          <t>1,55; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,0</t>
+          <t>2,31; 5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,5</t>
+          <t>2,2; 4,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,3</t>
+          <t>0,99; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,35</t>
+          <t>4,42; 10,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,3</t>
+          <t>2,03; 6,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,49</t>
+          <t>5,98; 12,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 14,17</t>
+          <t>7,66; 13,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,78</t>
+          <t>7,27; 11,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>13,16%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 27,99</t>
+          <t>3,58; 31,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 29,32</t>
+          <t>5,65; 29,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 23,31</t>
+          <t>5,55; 23,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,25</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,1</t>
+          <t>0; 56,93</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 7,25</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 5,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +585,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 20,26</t>
+          <t>3,49; 21,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 9,67</t>
+          <t>1,66; 9,92</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,53</t>
+          <t>1,02; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,24</t>
+          <t>1,07; 5,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,37</t>
+          <t>1,43; 4,67</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,85</t>
+          <t>1,65; 4,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,86</t>
+          <t>2,44; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,47</t>
+          <t>2,37; 4,78</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +717,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,24</t>
+          <t>1,05; 5,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 10,81</t>
+          <t>4,28; 10,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,2</t>
+          <t>2,26; 6,37</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,31</t>
+          <t>5,97; 12,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,92</t>
+          <t>7,45; 13,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,65</t>
+          <t>7,16; 11,69</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 31,2</t>
+          <t>3,57; 28,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 29,01</t>
+          <t>5,55; 30,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 23,61</t>
+          <t>6,49; 24,95</t>
         </is>
       </c>
     </row>
@@ -906,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,77</t>
+          <t>2,53; 4,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,25</t>
+          <t>4,6; 7,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,44</t>
+          <t>3,66; 5,72</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7731</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7731</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3610</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2834; 17528</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2850; 17050</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9132</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9120</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18252</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3553; 19994</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3772; 18337</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10012; 32820</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14250</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13745</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27995</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7650; 22952</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8581; 21591</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19338; 38941</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25757</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29055</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54811</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7832; 44456</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19430; 47380</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27138; 76528</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25745</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21605</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>47350</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17840; 36529</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15407; 28844</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36188; 59137</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2525</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>605; 4906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>977; 5325</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2241; 8617</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 910</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 910</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>76904</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>83780</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>160684</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>49777; 96815</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>67339; 108218</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>125685; 196400</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>